--- a/Intervention 1/Scenario Analysis Intervention Frequency.xlsx
+++ b/Intervention 1/Scenario Analysis Intervention Frequency.xlsx
@@ -62,16 +62,16 @@
     <t>10</t>
   </si>
   <si>
-    <t>-4379616096.37988</t>
-  </si>
-  <si>
-    <t>-679413317.1058</t>
-  </si>
-  <si>
-    <t>1170688072.53124</t>
-  </si>
-  <si>
-    <t>2280748906.31347</t>
+    <t>-4738528319.31698</t>
+  </si>
+  <si>
+    <t>-1065824982.66343</t>
+  </si>
+  <si>
+    <t>770526685.663341</t>
+  </si>
+  <si>
+    <t>1872337686.65941</t>
   </si>
   <si>
     <t>772.107160725922</t>
@@ -86,19 +86,19 @@
     <t>1772849670.99982</t>
   </si>
   <si>
-    <t>1241485027.52899</t>
-  </si>
-  <si>
-    <t>7401405558.54817</t>
-  </si>
-  <si>
-    <t>3701202779.27408</t>
-  </si>
-  <si>
-    <t>1851101389.63704</t>
-  </si>
-  <si>
-    <t>741040555.854817</t>
+    <t>827573919.350819</t>
+  </si>
+  <si>
+    <t>7346406673.3071</t>
+  </si>
+  <si>
+    <t>3673703336.65355</t>
+  </si>
+  <si>
+    <t>1837351668.32677</t>
+  </si>
+  <si>
+    <t>735540667.33071</t>
   </si>
 </sst>
 </file>
